--- a/biology/Zoologie/Coniophanes/Coniophanes.xlsx
+++ b/biology/Zoologie/Coniophanes/Coniophanes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coniophanes est un genre de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coniophanes est un genre de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent du Pérou au Sud des États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent du Pérou au Sud des États-Unis.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents qui atteignent de 30 à 50 centimètres. Ils sont en général rouge-orange dessus, le reste du corps étant brun plus ou moins sombre avec des bandes noires longitudinales, bien que certains individus ne présentent pas de bandes.
 Ce sont des reptiles terrestres et nocturnes. Ils se nourrissent de petits rongeurs, reptiles ou amphibiens.
@@ -575,9 +591,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 août 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 août 2013) :
 Coniophanes alvarezi Campbell, 1989
 Coniophanes andresensis Bailey, 1937
 Coniophanes bipunctatus (Günther, 1858)
@@ -622,7 +640,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1861 "1860" : Catalogue of the Colubridæ in the Museum of the Academy of Natural Sciences of Philadelphia with notes and descriptions of new species. Part 2. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 241-266 (texte intégral).</t>
         </is>
